--- a/excel/src/test/resources/import_example.xlsx
+++ b/excel/src/test/resources/import_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\idea\github\wuxp-file-process\excel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E6124-F44C-4692-A237-4838B7E8C28E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F3D65-0879-4C8C-8FD4-5C0EC2494D5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否为vip性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,13 @@
   <si>
     <t>2007-07-07</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
   </si>
 </sst>
 </file>
@@ -401,13 +404,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
@@ -426,21 +430,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -449,13 +456,13 @@
         <v>18981898281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>1.2</v>
